--- a/scripts/plantillas/plantillas mesa de ayuda/04_Organizacion/proveedores.xlsx
+++ b/scripts/plantillas/plantillas mesa de ayuda/04_Organizacion/proveedores.xlsx
@@ -4,7 +4,6 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
-    <sheet name="Instrucciones" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -398,278 +397,1556 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="30.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>nombre</v>
+        <v>id</v>
       </c>
       <c r="B1" t="str">
-        <v>tipo</v>
+        <v>name</v>
       </c>
       <c r="C1" t="str">
-        <v>telefono</v>
+        <v>registration_number</v>
       </c>
       <c r="D1" t="str">
+        <v>address</v>
+      </c>
+      <c r="E1" t="str">
+        <v>phonenumber</v>
+      </c>
+      <c r="F1" t="str">
         <v>email</v>
       </c>
-      <c r="E1" t="str">
-        <v>sitio_web</v>
-      </c>
-      <c r="F1" t="str">
-        <v>direccion</v>
-      </c>
       <c r="G1" t="str">
-        <v>ciudad</v>
-      </c>
-      <c r="H1" t="str">
-        <v>comentario</v>
+        <v>comment</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>Tech Solutions SA</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>Hardware</v>
+        <v>ABIGER S.A DE C.V</v>
       </c>
       <c r="C2" t="str">
-        <v>5512345678</v>
+        <v>ABI180920U95</v>
       </c>
       <c r="D2" t="str">
-        <v>ventas@techsolutions.com</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>www.techsolutions.com</v>
+        <v/>
       </c>
       <c r="F2" t="str">
-        <v>Av. Tecnología 456</v>
+        <v/>
       </c>
       <c r="G2" t="str">
-        <v>CDMX</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Proveedor principal de laptops</v>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>ALBERTO RAMIREZ CASTILLO</v>
+      </c>
+      <c r="C3" t="str">
+        <v>RACA7102246W4</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>ANALISIS Y DIAGNOSTICO DE RIESGOS</v>
+      </c>
+      <c r="C4" t="str">
+        <v>ADR170719FJA</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>ARGA MANTENIMIENTO Y SERVICIOS SA DE CV</v>
+      </c>
+      <c r="C5" t="str">
+        <v>AMS190328G92</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>ARGONEROS DEL SURESTE</v>
+      </c>
+      <c r="C6" t="str">
+        <v>ASU111005NQ0</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>ARQUITECTOS CH CONSTRUCTORES , INGENIERIA INDUSTRIAL DE TOLUCA</v>
+      </c>
+      <c r="C7" t="str">
+        <v>ACC171124KUA</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Alazza Ingeniería</v>
+      </c>
+      <c r="C8" t="str">
+        <v>AIN170726D52</v>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Altec Ingeniería y Arquitectura</v>
+      </c>
+      <c r="C9" t="str">
+        <v>AIA100723LX8</v>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>BUFETE DE ESPECIALISTAS EN TRATAMIENTO DE AGUAS</v>
+      </c>
+      <c r="C10" t="str">
+        <v>BET971205LR2</v>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>CAVAL CONSTRUCCIONES Y MANTENIMIENTO</v>
+      </c>
+      <c r="C11" t="str">
+        <v>CCM191202667</v>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>CEMEX CONCRETOS</v>
+      </c>
+      <c r="C12" t="str">
+        <v>CCO7409189M1</v>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>CESAR GERARDO VALDES MIRANDA</v>
+      </c>
+      <c r="C13" t="str">
+        <v>VAMC7602161P6</v>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>CIMA INGENIERIA MEXICANA SA DE CV</v>
+      </c>
+      <c r="C14" t="str">
+        <v>CIM091020UQ8</v>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>COMERCIALIZADORA MIRMUSA</v>
+      </c>
+      <c r="C15" t="str">
+        <v>CMI030618AV5</v>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>CSI MG S DE R.L DE C.V</v>
+      </c>
+      <c r="C16" t="str">
+        <v>CMG171201KA4</v>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>CTSINGENIERIA</v>
+      </c>
+      <c r="C17" t="str">
+        <v>CTS200529HL9</v>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Compresores Muro</v>
+      </c>
+      <c r="C18" t="str">
+        <v>CMU200709HT2</v>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>DESARROLLO EN INGENIERIA INTEGRAL MACEDO SA DE CV</v>
+      </c>
+      <c r="C19" t="str">
+        <v>DII100920NF1</v>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>DT LATAM S.A. DE C.V.</v>
+      </c>
+      <c r="C20" t="str">
+        <v>DLA190521LL1</v>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str" xml:space="preserve">
+        <v xml:space="preserve">ESPECIALISTAS NACIONALES EN TECNOLOGIA E
+INNOVACION S DE RL DE CV</v>
+      </c>
+      <c r="C21" t="str">
+        <v>ENT180116QX4</v>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>FIRE AND CONTROLS</v>
+      </c>
+      <c r="C22" t="str">
+        <v>FCO150731VB5</v>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>GAS URIBE DE PUEBLA</v>
+      </c>
+      <c r="C23" t="str">
+        <v>GUP900611TA8</v>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>GL COVERING, S.A. DE C.V.</v>
+      </c>
+      <c r="C24" t="str">
+        <v>gco2001176k7</v>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>GRUAS INDUSTRIALES DEL BAJIO</v>
+      </c>
+      <c r="C25" t="str">
+        <v>GIB110909CH8</v>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>GRUPO CASTELLONORATO</v>
+      </c>
+      <c r="C26" t="str">
+        <v>GCA000830E37</v>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>GRUPO INDUSTRIAL SEMAIN</v>
+      </c>
+      <c r="C27" t="str">
+        <v>GIS241008DE3</v>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>GRUPO RAMAGAS SA DE CV</v>
+      </c>
+      <c r="C28" t="str">
+        <v>GRG850304TX7</v>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>GRUPO VIULKA</v>
+      </c>
+      <c r="C29" t="str">
+        <v>GVI160314JG7</v>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Grupo Coprinci S. A. de C. V.</v>
+      </c>
+      <c r="C30" t="str">
+        <v>GCO091029BF0</v>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <v>HEBI Enterprise Group</v>
+      </c>
+      <c r="C31" t="str">
+        <v>HEG051124TGA</v>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <v>HEMMSA HERNANDEZ MORA MONTAJES</v>
+      </c>
+      <c r="C32" t="str">
+        <v>HHM201110SC4</v>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <v>IEEPM, INGENIEROS ESPECIALISTAS EN PROYECTOS Y MANTENIMIENTO</v>
+      </c>
+      <c r="C33" t="str">
+        <v>IIE190219QP7</v>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <v>INDUSTRIAS MONTILLA</v>
+      </c>
+      <c r="C34" t="str">
+        <v>IMO621228BP3</v>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <v>INGENIERIA  EN CONSERVACION CONTINUA E INDUSTRIAL</v>
+      </c>
+      <c r="C35" t="str">
+        <v>ICC0308289G0</v>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>INGENIERIA DAPSA</v>
+      </c>
+      <c r="C36" t="str">
+        <v>IDA140308NY7</v>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <v>INGENIERIA OBRA CIVIL E INSTALACIONES</v>
+      </c>
+      <c r="C37" t="str">
+        <v>IOC980304RP1</v>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <v>JESUS BERNABE SALAZAR</v>
+      </c>
+      <c r="C38" t="str">
+        <v>BESJ750606MPA</v>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <v>JMM MANUFACTURAS</v>
+      </c>
+      <c r="C39" t="str">
+        <v>JMA881003N87</v>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <v>JUAN MANUEL FLORES SANCHEZ</v>
+      </c>
+      <c r="C40" t="str">
+        <v>FOSJ781121N80</v>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <v/>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <v>KEYSECURE</v>
+      </c>
+      <c r="C41" t="str">
+        <v>KSM220330QN9</v>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="str">
+        <v>LAGERHAUS SOLUTIONS, SA DE CV</v>
+      </c>
+      <c r="C42" t="str">
+        <v>LSO090703CL1</v>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="str">
+        <v>MACRO QUIMICA DEL CENTRO SA DE CV</v>
+      </c>
+      <c r="C43" t="str">
+        <v>MQC970605IF2</v>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <v>MAIRES MANTENIMIENTO INDUSTRIAL REFACCIONES Y SERVICIOS</v>
+      </c>
+      <c r="C44" t="str">
+        <v>MMI110317148</v>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="str">
+        <v>MANTENIMIENTO CHARCOP EMYJOO SA DE CV</v>
+      </c>
+      <c r="C45" t="str">
+        <v>MCE1803163N7</v>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="str">
+        <v>MANTENIMIENTO INTEGRAL Y CONSTRUCCIONES GENERALES AD</v>
+      </c>
+      <c r="C46" t="str">
+        <v>MIC130910TB9</v>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="str">
+        <v>MAPRIS SERVICIOS INDUSTRIALES S.A. DE C.V.</v>
+      </c>
+      <c r="C47" t="str">
+        <v>MSI131206QK0</v>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="str">
+        <v>MARIA ANTONIETA CASTRO BERNAL LONAS HERGO</v>
+      </c>
+      <c r="C48" t="str">
+        <v>CABA620418B69</v>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="str">
+        <v>MOMATT</v>
+      </c>
+      <c r="C49" t="str">
+        <v>MOM920318GW1</v>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <v/>
+      </c>
+      <c r="F49" t="str">
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="str">
+        <v>MONTACARGAS Y PARTES ROCA</v>
+      </c>
+      <c r="C50" t="str">
+        <v>MPR140206V36</v>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <v/>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Mantenimiento Hidraulico Morales Hermanos SA de CV</v>
+      </c>
+      <c r="C51" t="str">
+        <v>MHM1509228P4</v>
+      </c>
+      <c r="D51" t="str">
+        <v/>
+      </c>
+      <c r="E51" t="str">
+        <v/>
+      </c>
+      <c r="F51" t="str">
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="str">
+        <v>NETPOINT SA DE CV</v>
+      </c>
+      <c r="C52" t="str">
+        <v>NPO000508CP9</v>
+      </c>
+      <c r="D52" t="str">
+        <v/>
+      </c>
+      <c r="E52" t="str">
+        <v/>
+      </c>
+      <c r="F52" t="str">
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="str">
+        <v>OMEGAPOS INSTALACIONES Y CONSTRUCCIONES</v>
+      </c>
+      <c r="C53" t="str">
+        <v>OIC210422VB2</v>
+      </c>
+      <c r="D53" t="str">
+        <v/>
+      </c>
+      <c r="E53" t="str">
+        <v/>
+      </c>
+      <c r="F53" t="str">
+        <v/>
+      </c>
+      <c r="G53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="str">
+        <v>PROVEEDORA NIEGOZ</v>
+      </c>
+      <c r="C54" t="str">
+        <v>PNI131023SX9</v>
+      </c>
+      <c r="D54" t="str">
+        <v/>
+      </c>
+      <c r="E54" t="str">
+        <v/>
+      </c>
+      <c r="F54" t="str">
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="str">
+        <v>RAFAEL SOLORZANO RUIZ</v>
+      </c>
+      <c r="C55" t="str">
+        <v>SORR730602GVA</v>
+      </c>
+      <c r="D55" t="str">
+        <v/>
+      </c>
+      <c r="E55" t="str">
+        <v/>
+      </c>
+      <c r="F55" t="str">
+        <v/>
+      </c>
+      <c r="G55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="str">
+        <v>RV INGENIERA ELECTRICA</v>
+      </c>
+      <c r="C56" t="str">
+        <v>RIE2011048S3</v>
+      </c>
+      <c r="D56" t="str">
+        <v/>
+      </c>
+      <c r="E56" t="str">
+        <v/>
+      </c>
+      <c r="F56" t="str">
+        <v/>
+      </c>
+      <c r="G56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="str">
+        <v>SCM AURUS</v>
+      </c>
+      <c r="C57" t="str">
+        <v>SAU210306DR7</v>
+      </c>
+      <c r="D57" t="str">
+        <v/>
+      </c>
+      <c r="E57" t="str">
+        <v/>
+      </c>
+      <c r="F57" t="str">
+        <v/>
+      </c>
+      <c r="G57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="str">
+        <v>SIMIB</v>
+      </c>
+      <c r="C58" t="str">
+        <v>SAHA961003J60</v>
+      </c>
+      <c r="D58" t="str">
+        <v/>
+      </c>
+      <c r="E58" t="str">
+        <v/>
+      </c>
+      <c r="F58" t="str">
+        <v/>
+      </c>
+      <c r="G58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="str">
+        <v>SISTEMAS Y SERVICIOS ELECTRICOS DE PUEBLA</v>
+      </c>
+      <c r="C59" t="str">
+        <v>SSE960801684</v>
+      </c>
+      <c r="D59" t="str">
+        <v/>
+      </c>
+      <c r="E59" t="str">
+        <v/>
+      </c>
+      <c r="F59" t="str">
+        <v/>
+      </c>
+      <c r="G59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Security Systems Proyects (SESYPRO)</v>
+      </c>
+      <c r="C60" t="str">
+        <v>SSP130718B76</v>
+      </c>
+      <c r="D60" t="str">
+        <v/>
+      </c>
+      <c r="E60" t="str">
+        <v/>
+      </c>
+      <c r="F60" t="str">
+        <v/>
+      </c>
+      <c r="G60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="str">
+        <v>TARGET ROBOTICS</v>
+      </c>
+      <c r="C61" t="str">
+        <v>TRO010109A9A</v>
+      </c>
+      <c r="D61" t="str">
+        <v/>
+      </c>
+      <c r="E61" t="str">
+        <v/>
+      </c>
+      <c r="F61" t="str">
+        <v/>
+      </c>
+      <c r="G61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="str">
+        <v>TEICA S.A. DE C.V.</v>
+      </c>
+      <c r="C62" t="str">
+        <v>TEI0310206W9</v>
+      </c>
+      <c r="D62" t="str">
+        <v/>
+      </c>
+      <c r="E62" t="str">
+        <v/>
+      </c>
+      <c r="F62" t="str">
+        <v/>
+      </c>
+      <c r="G62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="str">
+        <v>VICTOR RANULFO MOLINA SERRANO</v>
+      </c>
+      <c r="C63" t="str">
+        <v>MOSV670527A16</v>
+      </c>
+      <c r="D63" t="str">
+        <v/>
+      </c>
+      <c r="E63" t="str">
+        <v/>
+      </c>
+      <c r="F63" t="str">
+        <v/>
+      </c>
+      <c r="G63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="str">
+        <v>YOSHELYN ROBLES OCOTZI</v>
+      </c>
+      <c r="C64" t="str">
+        <v>ROOY881203L50</v>
+      </c>
+      <c r="D64" t="str">
+        <v/>
+      </c>
+      <c r="E64" t="str">
+        <v/>
+      </c>
+      <c r="F64" t="str">
+        <v/>
+      </c>
+      <c r="G64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="str">
+        <v>constructora periban</v>
+      </c>
+      <c r="C65" t="str">
+        <v>cpe870220f40</v>
+      </c>
+      <c r="D65" t="str">
+        <v/>
+      </c>
+      <c r="E65" t="str">
+        <v/>
+      </c>
+      <c r="F65" t="str">
+        <v/>
+      </c>
+      <c r="G65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="str">
+        <v>ingenieria de control y automatizacion del pacifico</v>
+      </c>
+      <c r="C66" t="str">
+        <v>ICA060724A38</v>
+      </c>
+      <c r="D66" t="str">
+        <v/>
+      </c>
+      <c r="E66" t="str">
+        <v/>
+      </c>
+      <c r="F66" t="str">
+        <v/>
+      </c>
+      <c r="G66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="str">
+        <v>tecsisco 2022</v>
+      </c>
+      <c r="C67" t="str">
+        <v>TDM2212099N9</v>
+      </c>
+      <c r="D67" t="str">
+        <v/>
+      </c>
+      <c r="E67" t="str">
+        <v/>
+      </c>
+      <c r="F67" t="str">
+        <v/>
+      </c>
+      <c r="G67" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Campo</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Descripcion</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Requerido</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Ejemplo</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>=== INSTRUCCIONES ===</v>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Plantilla: proveedores</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Empresas proveedoras</v>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v/>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>=== CAMPOS ===</v>
-      </c>
-      <c r="B5" t="str">
-        <v/>
-      </c>
-      <c r="C5" t="str">
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>nombre</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Nombre de la empresa</v>
-      </c>
-      <c r="C6" t="str">
-        <v>SÍ</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Tech Solutions SA</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>tipo</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Tipo de proveedor</v>
-      </c>
-      <c r="C7" t="str">
-        <v>No</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Hardware</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>telefono</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Teléfono</v>
-      </c>
-      <c r="C8" t="str">
-        <v>No</v>
-      </c>
-      <c r="D8" t="str">
-        <v>5512345678</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>email</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Email de contacto</v>
-      </c>
-      <c r="C9" t="str">
-        <v>No</v>
-      </c>
-      <c r="D9" t="str">
-        <v>ventas@techsolutions.com</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>sitio_web</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Sitio web</v>
-      </c>
-      <c r="C10" t="str">
-        <v>No</v>
-      </c>
-      <c r="D10" t="str">
-        <v>www.techsolutions.com</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>direccion</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Dirección</v>
-      </c>
-      <c r="C11" t="str">
-        <v>No</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Av. Tecnología 456</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>ciudad</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Ciudad</v>
-      </c>
-      <c r="C12" t="str">
-        <v>No</v>
-      </c>
-      <c r="D12" t="str">
-        <v>CDMX</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>comentario</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Notas</v>
-      </c>
-      <c r="C13" t="str">
-        <v>No</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Proveedor principal de laptops</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G67"/>
   </ignoredErrors>
 </worksheet>
 </file>